--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_electron_Gauss_600_600_keV_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,31 +520,31 @@
         <v>0.153307554461641</v>
       </c>
       <c r="F2" t="n">
-        <v>11.8313997043323</v>
+        <v>11.83282077082337</v>
       </c>
       <c r="G2" t="n">
-        <v>11.50211211678714</v>
+        <v>11.50355499617784</v>
       </c>
       <c r="H2" t="n">
-        <v>12.165508810037</v>
+        <v>12.15969956504401</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95877655367094</v>
+        <v>1.958846661237457</v>
       </c>
       <c r="J2" t="n">
-        <v>1.937916295994947</v>
+        <v>1.9376149628667</v>
       </c>
       <c r="K2" t="n">
-        <v>1.980457036464455</v>
+        <v>1.979667720669618</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1523756918014171</v>
+        <v>0.152379779718232</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1507304915567497</v>
+        <v>0.1507092671500617</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1540692188504774</v>
+        <v>0.1540427797154021</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0.0004310974903568659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00198864122907059</v>
+        <v>0.001988920169596953</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001229752012398398</v>
+        <v>0.001225239106697428</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002946903413665662</v>
+        <v>0.002928094946145958</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001842332422856608</v>
+        <v>0.001842583827726434</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001131704584908917</v>
+        <v>0.001127358061955948</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002737510480714519</v>
+        <v>0.002719638412528947</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002072674307244477</v>
+        <v>0.002073003149112929</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001299640976437929</v>
+        <v>0.001295068847266368</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003045389977899829</v>
+        <v>0.003025949016168607</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.00687180793019</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.974477778970852</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1537386519519979</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.83480969099296</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.50478023528454</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12.16262765999016</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.960689245065184</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.938742320928656</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.982387359082146</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1544527828673449</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1520043359973281</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1570687287315708</v>
       </c>
     </row>
   </sheetData>
